--- a/2019 training.xlsx
+++ b/2019 training.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan-April" sheetId="1" r:id="rId1"/>
+    <sheet name="Jan-June" sheetId="1" r:id="rId1"/>
     <sheet name="weight plot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -629,6 +629,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="30" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="30" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="30" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="30" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,15 +661,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="30" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Bad" xfId="19" builtinId="27"/>
@@ -742,6 +742,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -755,7 +756,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Jan-April'!$C$1:$C$2</c:f>
+              <c:f>'Jan-June'!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -780,7 +781,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jan-April'!$B$3:$B$160</c:f>
+              <c:f>'Jan-June'!$B$3:$B$160</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="158"/>
@@ -1263,7 +1264,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Jan-April'!$C$3:$C$160</c:f>
+              <c:f>'Jan-June'!$C$3:$C$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="158"/>
@@ -1730,11 +1731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146963032"/>
-        <c:axId val="-2146961016"/>
+        <c:axId val="2138569032"/>
+        <c:axId val="2138981864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146963032"/>
+        <c:axId val="2138569032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43650.0"/>
@@ -1746,14 +1747,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146961016"/>
+        <c:crossAx val="2138981864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="28.0"/>
         <c:minorUnit val="7.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146961016"/>
+        <c:axId val="2138981864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -1766,7 +1767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146963032"/>
+        <c:crossAx val="2138569032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2141,7 +2142,7 @@
   <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2151,27 +2152,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" thickBot="1">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="77" t="s">
+      <c r="N1" s="79" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2206,10 +2207,10 @@
       <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
     </row>
     <row r="3" spans="1:14" ht="16" thickTop="1">
       <c r="A3" s="5">
@@ -2235,18 +2236,18 @@
       <c r="J3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="68">
         <f>(SUM(I3:J9))/60</f>
         <v>11.533333333333333</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="73">
+      <c r="M3" s="74">
         <f>C9-C3</f>
         <v>-0.5</v>
       </c>
-      <c r="N3" s="76">
+      <c r="N3" s="77">
         <f>AVERAGE(C3:C9)</f>
         <v>78.01428571428572</v>
       </c>
@@ -2275,10 +2276,10 @@
       <c r="J4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="68"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="69"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="9">
@@ -2302,10 +2303,10 @@
         <v>80</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="69"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="9">
@@ -2335,10 +2336,10 @@
       <c r="J6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="9">
@@ -2362,10 +2363,10 @@
       <c r="J7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="9">
@@ -2391,10 +2392,10 @@
       <c r="J8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="68"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="15">
@@ -2424,10 +2425,10 @@
       <c r="J9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="69"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="69"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="70"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="20">
@@ -2451,18 +2452,18 @@
         <v>80</v>
       </c>
       <c r="J10" s="24"/>
-      <c r="K10" s="67">
+      <c r="K10" s="68">
         <f>(SUM(I10:J16))/60</f>
         <v>11.65</v>
       </c>
-      <c r="L10" s="70" t="s">
+      <c r="L10" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="73">
+      <c r="M10" s="74">
         <f>C16-C10</f>
         <v>-1.1000000000000085</v>
       </c>
-      <c r="N10" s="76">
+      <c r="N10" s="77">
         <f>AVERAGE(C10:C16)</f>
         <v>77.457142857142841</v>
       </c>
@@ -2489,10 +2490,10 @@
         <v>80</v>
       </c>
       <c r="J11" s="28"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="25">
@@ -2520,10 +2521,10 @@
       <c r="J12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="69"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="25">
@@ -2553,10 +2554,10 @@
       <c r="J13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="69"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="25">
@@ -2580,10 +2581,10 @@
       <c r="J14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="69"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="25">
@@ -2611,10 +2612,10 @@
       <c r="J15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="68"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="68"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="69"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="31">
@@ -2638,10 +2639,10 @@
         <v>80</v>
       </c>
       <c r="J16" s="34"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="69"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="70"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="20">
@@ -2665,18 +2666,18 @@
         <v>80</v>
       </c>
       <c r="J17" s="24"/>
-      <c r="K17" s="67">
+      <c r="K17" s="68">
         <f>(SUM(I17:J23))/60</f>
         <v>12.166666666666666</v>
       </c>
-      <c r="L17" s="70" t="s">
+      <c r="L17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="73">
+      <c r="M17" s="74">
         <f>C23-C17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="76">
+      <c r="N17" s="77">
         <f>AVERAGE(C17:C23)</f>
         <v>76.2</v>
       </c>
@@ -2709,10 +2710,10 @@
       <c r="J18" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="68"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="69"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="25">
@@ -2740,10 +2741,10 @@
       <c r="J19" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="68"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="69"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="25">
@@ -2773,10 +2774,10 @@
       <c r="J20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="68"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="69"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="25">
@@ -2800,10 +2801,10 @@
       <c r="J21" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="68"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="68"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="69"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="25">
@@ -2829,10 +2830,10 @@
       <c r="J22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="68"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="69"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="31">
@@ -2856,10 +2857,10 @@
         <v>80</v>
       </c>
       <c r="J23" s="34"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="70"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="20">
@@ -2885,16 +2886,16 @@
         <v>105</v>
       </c>
       <c r="J24" s="24"/>
-      <c r="K24" s="67">
+      <c r="K24" s="68">
         <f>(SUM(I24:J30))/60</f>
         <v>9.7166666666666668</v>
       </c>
-      <c r="L24" s="70"/>
-      <c r="M24" s="73">
+      <c r="L24" s="71"/>
+      <c r="M24" s="74">
         <f>C30-C24</f>
         <v>-1.5999999999999943</v>
       </c>
-      <c r="N24" s="76">
+      <c r="N24" s="77">
         <f>AVERAGE(C24:C30)</f>
         <v>75.342857142857142</v>
       </c>
@@ -2925,10 +2926,10 @@
         <v>200</v>
       </c>
       <c r="J25" s="28"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="68"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="69"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="25">
@@ -2952,10 +2953,10 @@
         <v>80</v>
       </c>
       <c r="J26" s="28"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="68"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="69"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="25">
@@ -2979,10 +2980,10 @@
         <v>80</v>
       </c>
       <c r="J27" s="28"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="68"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="69"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="25">
@@ -3006,10 +3007,10 @@
       <c r="J28" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="68"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="69"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="25">
@@ -3035,10 +3036,10 @@
       <c r="J29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="68"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="68"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="69"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="31">
@@ -3062,10 +3063,10 @@
         <v>80</v>
       </c>
       <c r="J30" s="34"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="69"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="70"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="20">
@@ -3089,18 +3090,18 @@
         <v>80</v>
       </c>
       <c r="J31" s="24"/>
-      <c r="K31" s="67">
+      <c r="K31" s="68">
         <f>(SUM(I31:J37))/60</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="L31" s="70" t="s">
+      <c r="L31" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="M31" s="73">
+      <c r="M31" s="74">
         <f>C37-C31</f>
         <v>-0.5</v>
       </c>
-      <c r="N31" s="76">
+      <c r="N31" s="77">
         <f>AVERAGE(C31:C37)</f>
         <v>74.900000000000006</v>
       </c>
@@ -3131,10 +3132,10 @@
         <v>200</v>
       </c>
       <c r="J32" s="28"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="68"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="69"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="25">
@@ -3158,10 +3159,10 @@
         <v>80</v>
       </c>
       <c r="J33" s="28"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="68"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="69"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="25">
@@ -3185,10 +3186,10 @@
         <v>80</v>
       </c>
       <c r="J34" s="28"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="68"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="69"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="25">
@@ -3212,10 +3213,10 @@
         <v>120</v>
       </c>
       <c r="J35" s="28"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="68"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="69"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="25">
@@ -3239,10 +3240,10 @@
       <c r="J36" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="68"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="68"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="69"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="31">
@@ -3266,10 +3267,10 @@
         <v>80</v>
       </c>
       <c r="J37" s="34"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="69"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="70"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
@@ -3297,16 +3298,16 @@
         <v>195</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="67">
+      <c r="K38" s="68">
         <f>(SUM(I38:J44))/60</f>
         <v>11.883333333333333</v>
       </c>
-      <c r="L38" s="70"/>
-      <c r="M38" s="73">
+      <c r="L38" s="71"/>
+      <c r="M38" s="74">
         <f>C44-C38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="76">
+      <c r="N38" s="77">
         <f>AVERAGE(C38:C44)</f>
         <v>74.54285714285713</v>
       </c>
@@ -3333,10 +3334,10 @@
         <v>80</v>
       </c>
       <c r="J39" s="28"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="68"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="69"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
@@ -3360,10 +3361,10 @@
         <v>80</v>
       </c>
       <c r="J40" s="28"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="68"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="69"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
@@ -3393,10 +3394,10 @@
       <c r="J41" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K41" s="68"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="68"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="69"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
@@ -3420,10 +3421,10 @@
       <c r="J42" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="68"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="68"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="69"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
@@ -3449,10 +3450,10 @@
       <c r="J43" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K43" s="68"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="68"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="69"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
@@ -3478,10 +3479,10 @@
         <v>115</v>
       </c>
       <c r="J44" s="34"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="69"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="70"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
@@ -3507,16 +3508,16 @@
         <v>115</v>
       </c>
       <c r="J45" s="24"/>
-      <c r="K45" s="67">
+      <c r="K45" s="68">
         <f>(SUM(I45:J51))/60</f>
         <v>14.783333333333333</v>
       </c>
-      <c r="L45" s="70"/>
-      <c r="M45" s="73">
+      <c r="L45" s="71"/>
+      <c r="M45" s="74">
         <f>C51-C45</f>
         <v>-0.29999999999999716</v>
       </c>
-      <c r="N45" s="76">
+      <c r="N45" s="77">
         <f>AVERAGE(C45:C51)</f>
         <v>74.214285714285708</v>
       </c>
@@ -3545,10 +3546,10 @@
         <v>115</v>
       </c>
       <c r="J46" s="28"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="68"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="69"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
@@ -3578,10 +3579,10 @@
       <c r="J47" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="K47" s="68"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="68"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="69"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
@@ -3607,10 +3608,10 @@
         <v>115</v>
       </c>
       <c r="J48" s="28"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="68"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="69"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
@@ -3634,10 +3635,10 @@
       <c r="J49" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="68"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="68"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="69"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
@@ -3663,10 +3664,10 @@
       <c r="J50" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="68"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="68"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="69"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
@@ -3694,10 +3695,10 @@
         <v>210</v>
       </c>
       <c r="J51" s="34"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="69"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="70"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
@@ -3721,16 +3722,16 @@
         <v>80</v>
       </c>
       <c r="J52" s="24"/>
-      <c r="K52" s="67">
+      <c r="K52" s="68">
         <f>(SUM(I52:J58))/60</f>
         <v>12.5</v>
       </c>
-      <c r="L52" s="70"/>
-      <c r="M52" s="73">
+      <c r="L52" s="71"/>
+      <c r="M52" s="74">
         <f>C58-C52</f>
         <v>0.5</v>
       </c>
-      <c r="N52" s="76">
+      <c r="N52" s="77">
         <f>AVERAGE(C52:C58)</f>
         <v>74.385714285714286</v>
       </c>
@@ -3757,10 +3758,10 @@
         <v>80</v>
       </c>
       <c r="J53" s="28"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="68"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="69"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
@@ -3788,10 +3789,10 @@
       <c r="J54" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K54" s="68"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="74"/>
-      <c r="N54" s="68"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="69"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
@@ -3821,10 +3822,10 @@
       <c r="J55" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K55" s="68"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="68"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="69"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
@@ -3848,10 +3849,10 @@
       <c r="J56" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="68"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="74"/>
-      <c r="N56" s="68"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="69"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
@@ -3875,10 +3876,10 @@
         <v>80</v>
       </c>
       <c r="J57" s="28"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="68"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="69"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
@@ -3906,10 +3907,10 @@
         <v>205</v>
       </c>
       <c r="J58" s="34"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="69"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="70"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
@@ -3933,16 +3934,16 @@
         <v>80</v>
       </c>
       <c r="J59" s="24"/>
-      <c r="K59" s="67">
+      <c r="K59" s="68">
         <f>(SUM(I59:J65))/60</f>
         <v>14.016666666666667</v>
       </c>
-      <c r="L59" s="70"/>
-      <c r="M59" s="73">
+      <c r="L59" s="71"/>
+      <c r="M59" s="74">
         <f>C65-C59</f>
         <v>0</v>
       </c>
-      <c r="N59" s="76">
+      <c r="N59" s="77">
         <f>AVERAGE(C59:C65)</f>
         <v>74.728571428571428</v>
       </c>
@@ -3975,10 +3976,10 @@
       <c r="J60" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K60" s="68"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="68"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="69"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
@@ -4002,10 +4003,10 @@
         <v>80</v>
       </c>
       <c r="J61" s="28"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="68"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="69"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
@@ -4035,10 +4036,10 @@
       <c r="J62" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K62" s="68"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="74"/>
-      <c r="N62" s="68"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="69"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
@@ -4064,10 +4065,10 @@
       <c r="J63" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K63" s="68"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="74"/>
-      <c r="N63" s="68"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="69"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
@@ -4091,10 +4092,10 @@
       <c r="J64" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="68"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="68"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="69"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
@@ -4124,10 +4125,10 @@
       <c r="J65" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K65" s="69"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="69"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="70"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
@@ -4151,16 +4152,16 @@
         <v>80</v>
       </c>
       <c r="J66" s="24"/>
-      <c r="K66" s="67">
+      <c r="K66" s="68">
         <f>(SUM(I66:J72))/60</f>
         <v>11.966666666666667</v>
       </c>
-      <c r="L66" s="70"/>
-      <c r="M66" s="73">
+      <c r="L66" s="71"/>
+      <c r="M66" s="74">
         <f>C72-C66</f>
         <v>0.79999999999999716</v>
       </c>
-      <c r="N66" s="76">
+      <c r="N66" s="77">
         <f>AVERAGE(C66:C72)</f>
         <v>74.642857142857139</v>
       </c>
@@ -4193,10 +4194,10 @@
       <c r="J67" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="K67" s="68"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="68"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="69"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
@@ -4222,10 +4223,10 @@
         <v>110</v>
       </c>
       <c r="J68" s="28"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="68"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="69"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
@@ -4249,10 +4250,10 @@
         <v>80</v>
       </c>
       <c r="J69" s="28"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="74"/>
-      <c r="N69" s="68"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="72"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="69"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
@@ -4278,10 +4279,10 @@
       <c r="J70" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K70" s="68"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="68"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="69"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
@@ -4307,10 +4308,10 @@
       <c r="J71" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K71" s="68"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="74"/>
-      <c r="N71" s="68"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="69"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
@@ -4334,10 +4335,10 @@
         <v>80</v>
       </c>
       <c r="J72" s="34"/>
-      <c r="K72" s="69"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="69"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="76"/>
+      <c r="N72" s="70"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
@@ -4367,16 +4368,16 @@
       <c r="J73" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="67">
+      <c r="K73" s="68">
         <f>(SUM(I73:J79))/60</f>
         <v>11.333333333333334</v>
       </c>
-      <c r="L73" s="70"/>
-      <c r="M73" s="73">
+      <c r="L73" s="71"/>
+      <c r="M73" s="74">
         <f>C79-C73</f>
         <v>0</v>
       </c>
-      <c r="N73" s="76">
+      <c r="N73" s="77">
         <f>AVERAGE(C73:C79)</f>
         <v>74.98571428571428</v>
       </c>
@@ -4403,10 +4404,10 @@
         <v>80</v>
       </c>
       <c r="J74" s="28"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="74"/>
-      <c r="N74" s="68"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="75"/>
+      <c r="N74" s="69"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
@@ -4430,10 +4431,10 @@
         <v>80</v>
       </c>
       <c r="J75" s="28"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="74"/>
-      <c r="N75" s="68"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="69"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
@@ -4463,10 +4464,10 @@
       <c r="J76" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K76" s="68"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="68"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="69"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
@@ -4490,10 +4491,10 @@
       <c r="J77" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K77" s="68"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="74"/>
-      <c r="N77" s="68"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="69"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
@@ -4517,10 +4518,10 @@
         <v>40</v>
       </c>
       <c r="J78" s="28"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="68"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="69"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
@@ -4544,10 +4545,10 @@
         <v>80</v>
       </c>
       <c r="J79" s="34"/>
-      <c r="K79" s="69"/>
-      <c r="L79" s="72"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="69"/>
+      <c r="K79" s="70"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="76"/>
+      <c r="N79" s="70"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
@@ -4571,16 +4572,16 @@
       <c r="J80" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="K80" s="67">
+      <c r="K80" s="68">
         <f>(SUM(I80:J86))/60</f>
         <v>5.416666666666667</v>
       </c>
-      <c r="L80" s="70"/>
-      <c r="M80" s="73">
+      <c r="L80" s="71"/>
+      <c r="M80" s="74">
         <f>C86-C80</f>
         <v>-0.39999999999999147</v>
       </c>
-      <c r="N80" s="76">
+      <c r="N80" s="77">
         <f>AVERAGE(C80:C86)</f>
         <v>73.54285714285713</v>
       </c>
@@ -4607,10 +4608,10 @@
       <c r="J81" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K81" s="68"/>
-      <c r="L81" s="71"/>
-      <c r="M81" s="74"/>
-      <c r="N81" s="68"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="72"/>
+      <c r="M81" s="75"/>
+      <c r="N81" s="69"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
@@ -4636,10 +4637,10 @@
       <c r="J82" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K82" s="68"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="74"/>
-      <c r="N82" s="68"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="75"/>
+      <c r="N82" s="69"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
@@ -4669,10 +4670,10 @@
       <c r="J83" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="K83" s="68"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="74"/>
-      <c r="N83" s="68"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="75"/>
+      <c r="N83" s="69"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
@@ -4696,10 +4697,10 @@
       <c r="J84" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K84" s="68"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="74"/>
-      <c r="N84" s="68"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="72"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="69"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
@@ -4725,10 +4726,10 @@
       <c r="J85" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="K85" s="68"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="74"/>
-      <c r="N85" s="68"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="72"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="69"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86">
@@ -4752,10 +4753,10 @@
       <c r="J86" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="K86" s="69"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="69"/>
+      <c r="K86" s="70"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="76"/>
+      <c r="N86" s="70"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
@@ -4779,16 +4780,16 @@
       <c r="J87" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K87" s="67">
+      <c r="K87" s="68">
         <f>(SUM(I87:J93))/60</f>
         <v>12</v>
       </c>
-      <c r="L87" s="70"/>
-      <c r="M87" s="73">
+      <c r="L87" s="71"/>
+      <c r="M87" s="74">
         <f>C93-C87</f>
         <v>0.5</v>
       </c>
-      <c r="N87" s="76">
+      <c r="N87" s="77">
         <f>AVERAGE(C87:C93)</f>
         <v>74.771428571428572</v>
       </c>
@@ -4817,10 +4818,10 @@
       <c r="J88" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K88" s="68"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="74"/>
-      <c r="N88" s="68"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="75"/>
+      <c r="N88" s="69"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
@@ -4844,10 +4845,10 @@
         <v>80</v>
       </c>
       <c r="J89" s="28"/>
-      <c r="K89" s="68"/>
-      <c r="L89" s="71"/>
-      <c r="M89" s="74"/>
-      <c r="N89" s="68"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="72"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="69"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
@@ -4877,10 +4878,10 @@
       <c r="J90" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="68"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="74"/>
-      <c r="N90" s="68"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="69"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
@@ -4906,10 +4907,10 @@
       <c r="J91" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="68"/>
-      <c r="L91" s="71"/>
-      <c r="M91" s="74"/>
-      <c r="N91" s="68"/>
+      <c r="K91" s="69"/>
+      <c r="L91" s="72"/>
+      <c r="M91" s="75"/>
+      <c r="N91" s="69"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
@@ -4935,10 +4936,10 @@
       <c r="J92" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="68"/>
-      <c r="L92" s="71"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="68"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="72"/>
+      <c r="M92" s="75"/>
+      <c r="N92" s="69"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
@@ -4968,10 +4969,10 @@
       <c r="J93" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="K93" s="69"/>
-      <c r="L93" s="72"/>
-      <c r="M93" s="75"/>
-      <c r="N93" s="69"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="73"/>
+      <c r="M93" s="76"/>
+      <c r="N93" s="70"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
@@ -4995,16 +4996,16 @@
         <v>80</v>
       </c>
       <c r="J94" s="24"/>
-      <c r="K94" s="67">
+      <c r="K94" s="68">
         <f>(SUM(I94:J100))/60</f>
         <v>13.166666666666666</v>
       </c>
-      <c r="L94" s="70"/>
-      <c r="M94" s="73">
+      <c r="L94" s="71"/>
+      <c r="M94" s="74">
         <f>C100-C94</f>
         <v>-0.5</v>
       </c>
-      <c r="N94" s="76">
+      <c r="N94" s="77">
         <f>AVERAGE(C94:C100)</f>
         <v>75.142857142857139</v>
       </c>
@@ -5037,10 +5038,10 @@
       <c r="J95" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="K95" s="68"/>
-      <c r="L95" s="71"/>
-      <c r="M95" s="74"/>
-      <c r="N95" s="68"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="72"/>
+      <c r="M95" s="75"/>
+      <c r="N95" s="69"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
@@ -5064,10 +5065,10 @@
         <v>80</v>
       </c>
       <c r="J96" s="28"/>
-      <c r="K96" s="68"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="74"/>
-      <c r="N96" s="68"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="72"/>
+      <c r="M96" s="75"/>
+      <c r="N96" s="69"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
@@ -5097,10 +5098,10 @@
       <c r="J97" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K97" s="68"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="68"/>
+      <c r="K97" s="69"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="75"/>
+      <c r="N97" s="69"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
@@ -5124,10 +5125,10 @@
       <c r="J98" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K98" s="68"/>
-      <c r="L98" s="71"/>
-      <c r="M98" s="74"/>
-      <c r="N98" s="68"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="72"/>
+      <c r="M98" s="75"/>
+      <c r="N98" s="69"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
@@ -5151,10 +5152,10 @@
       <c r="J99" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K99" s="68"/>
-      <c r="L99" s="71"/>
-      <c r="M99" s="74"/>
-      <c r="N99" s="68"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="75"/>
+      <c r="N99" s="69"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
@@ -5182,10 +5183,10 @@
         <v>210</v>
       </c>
       <c r="J100" s="34"/>
-      <c r="K100" s="69"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="75"/>
-      <c r="N100" s="69"/>
+      <c r="K100" s="70"/>
+      <c r="L100" s="73"/>
+      <c r="M100" s="76"/>
+      <c r="N100" s="70"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
@@ -5209,16 +5210,16 @@
         <v>80</v>
       </c>
       <c r="J101" s="24"/>
-      <c r="K101" s="67">
+      <c r="K101" s="68">
         <f>(SUM(I101:J107))/60</f>
         <v>8.0833333333333339</v>
       </c>
-      <c r="L101" s="70"/>
-      <c r="M101" s="73">
+      <c r="L101" s="71"/>
+      <c r="M101" s="74">
         <f>C107-C101</f>
         <v>1</v>
       </c>
-      <c r="N101" s="76">
+      <c r="N101" s="77">
         <f>AVERAGE(C101:C107)</f>
         <v>75.271428571428572</v>
       </c>
@@ -5245,10 +5246,10 @@
         <v>80</v>
       </c>
       <c r="J102" s="28"/>
-      <c r="K102" s="68"/>
-      <c r="L102" s="71"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="68"/>
+      <c r="K102" s="69"/>
+      <c r="L102" s="72"/>
+      <c r="M102" s="75"/>
+      <c r="N102" s="69"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
@@ -5272,10 +5273,10 @@
         <v>80</v>
       </c>
       <c r="J103" s="28"/>
-      <c r="K103" s="68"/>
-      <c r="L103" s="71"/>
-      <c r="M103" s="74"/>
-      <c r="N103" s="68"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="75"/>
+      <c r="N103" s="69"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104">
@@ -5303,10 +5304,10 @@
         <v>210</v>
       </c>
       <c r="J104" s="28"/>
-      <c r="K104" s="68"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="74"/>
-      <c r="N104" s="68"/>
+      <c r="K104" s="69"/>
+      <c r="L104" s="72"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="69"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
@@ -5330,10 +5331,10 @@
       <c r="J105" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K105" s="68"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="68"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="72"/>
+      <c r="M105" s="75"/>
+      <c r="N105" s="69"/>
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
@@ -5359,10 +5360,10 @@
       <c r="J106" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="K106" s="68"/>
-      <c r="L106" s="71"/>
-      <c r="M106" s="74"/>
-      <c r="N106" s="68"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="75"/>
+      <c r="N106" s="69"/>
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
@@ -5386,10 +5387,10 @@
       <c r="J107" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K107" s="69"/>
-      <c r="L107" s="72"/>
-      <c r="M107" s="75"/>
-      <c r="N107" s="69"/>
+      <c r="K107" s="70"/>
+      <c r="L107" s="73"/>
+      <c r="M107" s="76"/>
+      <c r="N107" s="70"/>
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
@@ -5413,18 +5414,18 @@
         <v>90</v>
       </c>
       <c r="J108" s="24"/>
-      <c r="K108" s="67">
+      <c r="K108" s="68">
         <f>(SUM(I108:J114))/60</f>
         <v>7.3666666666666663</v>
       </c>
-      <c r="L108" s="70" t="s">
+      <c r="L108" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M108" s="73">
+      <c r="M108" s="74">
         <f>C114-C108</f>
         <v>-0.60000000000000853</v>
       </c>
-      <c r="N108" s="76">
+      <c r="N108" s="77">
         <f>AVERAGE(C108:C114)</f>
         <v>75.342857142857156</v>
       </c>
@@ -5451,10 +5452,10 @@
         <v>80</v>
       </c>
       <c r="J109" s="28"/>
-      <c r="K109" s="68"/>
-      <c r="L109" s="71"/>
-      <c r="M109" s="74"/>
-      <c r="N109" s="68"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="72"/>
+      <c r="M109" s="75"/>
+      <c r="N109" s="69"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110">
@@ -5478,10 +5479,10 @@
         <v>80</v>
       </c>
       <c r="J110" s="28"/>
-      <c r="K110" s="68"/>
-      <c r="L110" s="71"/>
-      <c r="M110" s="74"/>
-      <c r="N110" s="68"/>
+      <c r="K110" s="69"/>
+      <c r="L110" s="72"/>
+      <c r="M110" s="75"/>
+      <c r="N110" s="69"/>
     </row>
     <row r="111" spans="1:14">
       <c r="A111">
@@ -5505,10 +5506,10 @@
       <c r="J111" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K111" s="68"/>
-      <c r="L111" s="71"/>
-      <c r="M111" s="74"/>
-      <c r="N111" s="68"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="72"/>
+      <c r="M111" s="75"/>
+      <c r="N111" s="69"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112">
@@ -5532,10 +5533,10 @@
         <v>110</v>
       </c>
       <c r="J112" s="28"/>
-      <c r="K112" s="68"/>
-      <c r="L112" s="71"/>
-      <c r="M112" s="74"/>
-      <c r="N112" s="68"/>
+      <c r="K112" s="69"/>
+      <c r="L112" s="72"/>
+      <c r="M112" s="75"/>
+      <c r="N112" s="69"/>
     </row>
     <row r="113" spans="1:14">
       <c r="A113">
@@ -5561,10 +5562,10 @@
       <c r="J113" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K113" s="68"/>
-      <c r="L113" s="71"/>
-      <c r="M113" s="74"/>
-      <c r="N113" s="68"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="72"/>
+      <c r="M113" s="75"/>
+      <c r="N113" s="69"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114">
@@ -5590,10 +5591,10 @@
       <c r="J114" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K114" s="69"/>
-      <c r="L114" s="72"/>
-      <c r="M114" s="75"/>
-      <c r="N114" s="69"/>
+      <c r="K114" s="70"/>
+      <c r="L114" s="73"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="70"/>
     </row>
     <row r="115" spans="1:14">
       <c r="A115">
@@ -5621,18 +5622,18 @@
         <v>200</v>
       </c>
       <c r="J115" s="24"/>
-      <c r="K115" s="67">
+      <c r="K115" s="68">
         <f>(SUM(I115:J121))/60</f>
         <v>15.4</v>
       </c>
-      <c r="L115" s="70" t="s">
+      <c r="L115" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M115" s="73">
+      <c r="M115" s="74">
         <f>C121-C115</f>
         <v>1.0999999999999943</v>
       </c>
-      <c r="N115" s="76">
+      <c r="N115" s="77">
         <f>AVERAGE(C115:C121)</f>
         <v>75.7</v>
       </c>
@@ -5659,10 +5660,10 @@
         <v>80</v>
       </c>
       <c r="J116" s="28"/>
-      <c r="K116" s="68"/>
-      <c r="L116" s="71"/>
-      <c r="M116" s="74"/>
-      <c r="N116" s="68"/>
+      <c r="K116" s="69"/>
+      <c r="L116" s="72"/>
+      <c r="M116" s="75"/>
+      <c r="N116" s="69"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117">
@@ -5690,10 +5691,10 @@
         <v>190</v>
       </c>
       <c r="J117" s="28"/>
-      <c r="K117" s="68"/>
-      <c r="L117" s="71"/>
-      <c r="M117" s="74"/>
-      <c r="N117" s="68"/>
+      <c r="K117" s="69"/>
+      <c r="L117" s="72"/>
+      <c r="M117" s="75"/>
+      <c r="N117" s="69"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118">
@@ -5717,10 +5718,10 @@
         <v>80</v>
       </c>
       <c r="J118" s="28"/>
-      <c r="K118" s="68"/>
-      <c r="L118" s="71"/>
-      <c r="M118" s="74"/>
-      <c r="N118" s="68"/>
+      <c r="K118" s="69"/>
+      <c r="L118" s="72"/>
+      <c r="M118" s="75"/>
+      <c r="N118" s="69"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119">
@@ -5746,10 +5747,10 @@
       <c r="J119" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="K119" s="68"/>
-      <c r="L119" s="71"/>
-      <c r="M119" s="74"/>
-      <c r="N119" s="68"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="72"/>
+      <c r="M119" s="75"/>
+      <c r="N119" s="69"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120">
@@ -5773,10 +5774,10 @@
         <v>34</v>
       </c>
       <c r="J120" s="28"/>
-      <c r="K120" s="68"/>
-      <c r="L120" s="71"/>
-      <c r="M120" s="74"/>
-      <c r="N120" s="68"/>
+      <c r="K120" s="69"/>
+      <c r="L120" s="72"/>
+      <c r="M120" s="75"/>
+      <c r="N120" s="69"/>
     </row>
     <row r="121" spans="1:14">
       <c r="A121">
@@ -5806,10 +5807,10 @@
       <c r="J121" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="K121" s="69"/>
-      <c r="L121" s="72"/>
-      <c r="M121" s="75"/>
-      <c r="N121" s="69"/>
+      <c r="K121" s="70"/>
+      <c r="L121" s="73"/>
+      <c r="M121" s="76"/>
+      <c r="N121" s="70"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122">
@@ -5833,18 +5834,18 @@
         <v>80</v>
       </c>
       <c r="J122" s="24"/>
-      <c r="K122" s="67">
+      <c r="K122" s="68">
         <f>(SUM(I122:J128))/60</f>
         <v>6.5</v>
       </c>
-      <c r="L122" s="70" t="s">
+      <c r="L122" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M122" s="73">
+      <c r="M122" s="74">
         <f>C128-C122</f>
         <v>0.20000000000000284</v>
       </c>
-      <c r="N122" s="76">
+      <c r="N122" s="77">
         <f>AVERAGE(C122:C128)</f>
         <v>75.485714285714295</v>
       </c>
@@ -5877,10 +5878,10 @@
       <c r="J123" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K123" s="68"/>
-      <c r="L123" s="71"/>
-      <c r="M123" s="74"/>
-      <c r="N123" s="68"/>
+      <c r="K123" s="69"/>
+      <c r="L123" s="72"/>
+      <c r="M123" s="75"/>
+      <c r="N123" s="69"/>
     </row>
     <row r="124" spans="1:14">
       <c r="A124">
@@ -5904,10 +5905,10 @@
         <v>80</v>
       </c>
       <c r="J124" s="28"/>
-      <c r="K124" s="68"/>
-      <c r="L124" s="71"/>
-      <c r="M124" s="74"/>
-      <c r="N124" s="68"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="72"/>
+      <c r="M124" s="75"/>
+      <c r="N124" s="69"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125">
@@ -5931,10 +5932,10 @@
       <c r="J125" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K125" s="68"/>
-      <c r="L125" s="71"/>
-      <c r="M125" s="74"/>
-      <c r="N125" s="68"/>
+      <c r="K125" s="69"/>
+      <c r="L125" s="72"/>
+      <c r="M125" s="75"/>
+      <c r="N125" s="69"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126">
@@ -5958,10 +5959,10 @@
       <c r="J126" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K126" s="68"/>
-      <c r="L126" s="71"/>
-      <c r="M126" s="74"/>
-      <c r="N126" s="68"/>
+      <c r="K126" s="69"/>
+      <c r="L126" s="72"/>
+      <c r="M126" s="75"/>
+      <c r="N126" s="69"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127">
@@ -5985,10 +5986,10 @@
       <c r="J127" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K127" s="68"/>
-      <c r="L127" s="71"/>
-      <c r="M127" s="74"/>
-      <c r="N127" s="68"/>
+      <c r="K127" s="69"/>
+      <c r="L127" s="72"/>
+      <c r="M127" s="75"/>
+      <c r="N127" s="69"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128">
@@ -6012,10 +6013,10 @@
       <c r="J128" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="K128" s="69"/>
-      <c r="L128" s="72"/>
-      <c r="M128" s="75"/>
-      <c r="N128" s="69"/>
+      <c r="K128" s="70"/>
+      <c r="L128" s="73"/>
+      <c r="M128" s="76"/>
+      <c r="N128" s="70"/>
     </row>
     <row r="129" spans="1:14">
       <c r="A129">
@@ -6039,18 +6040,18 @@
       <c r="J129" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="K129" s="67">
+      <c r="K129" s="68">
         <f>(SUM(I129:J135))/60</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="L129" s="70" t="s">
+      <c r="L129" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M129" s="73">
+      <c r="M129" s="74">
         <f>C135-C129</f>
         <v>0.29999999999999716</v>
       </c>
-      <c r="N129" s="76">
+      <c r="N129" s="77">
         <f>AVERAGE(C129:C135)</f>
         <v>76.171428571428578</v>
       </c>
@@ -6077,10 +6078,10 @@
       <c r="J130" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K130" s="68"/>
-      <c r="L130" s="71"/>
-      <c r="M130" s="74"/>
-      <c r="N130" s="68"/>
+      <c r="K130" s="69"/>
+      <c r="L130" s="72"/>
+      <c r="M130" s="75"/>
+      <c r="N130" s="69"/>
     </row>
     <row r="131" spans="1:14">
       <c r="A131">
@@ -6104,10 +6105,10 @@
       <c r="J131" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K131" s="68"/>
-      <c r="L131" s="71"/>
-      <c r="M131" s="74"/>
-      <c r="N131" s="68"/>
+      <c r="K131" s="69"/>
+      <c r="L131" s="72"/>
+      <c r="M131" s="75"/>
+      <c r="N131" s="69"/>
     </row>
     <row r="132" spans="1:14">
       <c r="A132">
@@ -6131,10 +6132,10 @@
       <c r="J132" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K132" s="68"/>
-      <c r="L132" s="71"/>
-      <c r="M132" s="74"/>
-      <c r="N132" s="68"/>
+      <c r="K132" s="69"/>
+      <c r="L132" s="72"/>
+      <c r="M132" s="75"/>
+      <c r="N132" s="69"/>
     </row>
     <row r="133" spans="1:14">
       <c r="A133">
@@ -6158,10 +6159,10 @@
       <c r="J133" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K133" s="68"/>
-      <c r="L133" s="71"/>
-      <c r="M133" s="74"/>
-      <c r="N133" s="68"/>
+      <c r="K133" s="69"/>
+      <c r="L133" s="72"/>
+      <c r="M133" s="75"/>
+      <c r="N133" s="69"/>
     </row>
     <row r="134" spans="1:14">
       <c r="A134">
@@ -6183,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="J134" s="28"/>
-      <c r="K134" s="68"/>
-      <c r="L134" s="71"/>
-      <c r="M134" s="74"/>
-      <c r="N134" s="68"/>
+      <c r="K134" s="69"/>
+      <c r="L134" s="72"/>
+      <c r="M134" s="75"/>
+      <c r="N134" s="69"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135">
@@ -6210,10 +6211,10 @@
         <v>80</v>
       </c>
       <c r="J135" s="34"/>
-      <c r="K135" s="69"/>
-      <c r="L135" s="72"/>
-      <c r="M135" s="75"/>
-      <c r="N135" s="69"/>
+      <c r="K135" s="70"/>
+      <c r="L135" s="73"/>
+      <c r="M135" s="76"/>
+      <c r="N135" s="70"/>
     </row>
     <row r="136" spans="1:14">
       <c r="A136">
@@ -6241,18 +6242,18 @@
       <c r="J136" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K136" s="67">
+      <c r="K136" s="68">
         <f>(SUM(I136:J142))/60</f>
         <v>13.65</v>
       </c>
-      <c r="L136" s="70" t="s">
+      <c r="L136" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="M136" s="73">
+      <c r="M136" s="74">
         <f>C142-C136</f>
         <v>1.0999999999999943</v>
       </c>
-      <c r="N136" s="76">
+      <c r="N136" s="77">
         <f>AVERAGE(C136:C142)</f>
         <v>75.885714285714272</v>
       </c>
@@ -6279,10 +6280,10 @@
         <v>80</v>
       </c>
       <c r="J137" s="28"/>
-      <c r="K137" s="68"/>
-      <c r="L137" s="71"/>
-      <c r="M137" s="74"/>
-      <c r="N137" s="68"/>
+      <c r="K137" s="69"/>
+      <c r="L137" s="72"/>
+      <c r="M137" s="75"/>
+      <c r="N137" s="69"/>
     </row>
     <row r="138" spans="1:14">
       <c r="A138">
@@ -6312,10 +6313,10 @@
       <c r="J138" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="K138" s="68"/>
-      <c r="L138" s="71"/>
-      <c r="M138" s="74"/>
-      <c r="N138" s="68"/>
+      <c r="K138" s="69"/>
+      <c r="L138" s="72"/>
+      <c r="M138" s="75"/>
+      <c r="N138" s="69"/>
     </row>
     <row r="139" spans="1:14">
       <c r="A139">
@@ -6345,10 +6346,10 @@
       <c r="J139" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="K139" s="68"/>
-      <c r="L139" s="71"/>
-      <c r="M139" s="74"/>
-      <c r="N139" s="68"/>
+      <c r="K139" s="69"/>
+      <c r="L139" s="72"/>
+      <c r="M139" s="75"/>
+      <c r="N139" s="69"/>
     </row>
     <row r="140" spans="1:14">
       <c r="A140">
@@ -6369,10 +6370,10 @@
       <c r="J140" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K140" s="68"/>
-      <c r="L140" s="71"/>
-      <c r="M140" s="74"/>
-      <c r="N140" s="68"/>
+      <c r="K140" s="69"/>
+      <c r="L140" s="72"/>
+      <c r="M140" s="75"/>
+      <c r="N140" s="69"/>
     </row>
     <row r="141" spans="1:14">
       <c r="A141">
@@ -6398,10 +6399,10 @@
       <c r="J141" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="K141" s="68"/>
-      <c r="L141" s="71"/>
-      <c r="M141" s="74"/>
-      <c r="N141" s="68"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="75"/>
+      <c r="N141" s="69"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142">
@@ -6431,10 +6432,10 @@
       <c r="J142" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="K142" s="69"/>
-      <c r="L142" s="72"/>
-      <c r="M142" s="75"/>
-      <c r="N142" s="69"/>
+      <c r="K142" s="70"/>
+      <c r="L142" s="73"/>
+      <c r="M142" s="76"/>
+      <c r="N142" s="70"/>
     </row>
     <row r="143" spans="1:14">
       <c r="A143">
@@ -6458,16 +6459,16 @@
         <v>80</v>
       </c>
       <c r="J143" s="24"/>
-      <c r="K143" s="67">
+      <c r="K143" s="68">
         <f>(SUM(I143:J149))/60</f>
         <v>10.9</v>
       </c>
-      <c r="L143" s="70"/>
-      <c r="M143" s="73">
+      <c r="L143" s="71"/>
+      <c r="M143" s="74">
         <f>C149-C143</f>
         <v>0.5</v>
       </c>
-      <c r="N143" s="76">
+      <c r="N143" s="77">
         <f>AVERAGE(C143:C149)</f>
         <v>76.04285714285713</v>
       </c>
@@ -6500,10 +6501,10 @@
       <c r="J144" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="K144" s="68"/>
-      <c r="L144" s="71"/>
-      <c r="M144" s="74"/>
-      <c r="N144" s="68"/>
+      <c r="K144" s="69"/>
+      <c r="L144" s="72"/>
+      <c r="M144" s="75"/>
+      <c r="N144" s="69"/>
     </row>
     <row r="145" spans="1:14">
       <c r="A145">
@@ -6527,10 +6528,10 @@
         <v>80</v>
       </c>
       <c r="J145" s="28"/>
-      <c r="K145" s="68"/>
-      <c r="L145" s="71"/>
-      <c r="M145" s="74"/>
-      <c r="N145" s="68"/>
+      <c r="K145" s="69"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="75"/>
+      <c r="N145" s="69"/>
     </row>
     <row r="146" spans="1:14">
       <c r="A146">
@@ -6560,10 +6561,10 @@
       <c r="J146" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="K146" s="68"/>
-      <c r="L146" s="71"/>
-      <c r="M146" s="74"/>
-      <c r="N146" s="68"/>
+      <c r="K146" s="69"/>
+      <c r="L146" s="72"/>
+      <c r="M146" s="75"/>
+      <c r="N146" s="69"/>
     </row>
     <row r="147" spans="1:14">
       <c r="A147">
@@ -6572,7 +6573,7 @@
       <c r="B147" s="2">
         <v>43610</v>
       </c>
-      <c r="C147" s="80">
+      <c r="C147" s="67">
         <v>76.2</v>
       </c>
       <c r="D147" s="58"/>
@@ -6587,10 +6588,10 @@
       <c r="J147" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K147" s="68"/>
-      <c r="L147" s="71"/>
-      <c r="M147" s="74"/>
-      <c r="N147" s="68"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="72"/>
+      <c r="M147" s="75"/>
+      <c r="N147" s="69"/>
     </row>
     <row r="148" spans="1:14">
       <c r="A148">
@@ -6599,7 +6600,7 @@
       <c r="B148" s="2">
         <v>43611</v>
       </c>
-      <c r="C148" s="80">
+      <c r="C148" s="67">
         <v>76.099999999999994</v>
       </c>
       <c r="D148" s="58"/>
@@ -6614,10 +6615,10 @@
       <c r="J148" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K148" s="68"/>
-      <c r="L148" s="71"/>
-      <c r="M148" s="74"/>
-      <c r="N148" s="68"/>
+      <c r="K148" s="69"/>
+      <c r="L148" s="72"/>
+      <c r="M148" s="75"/>
+      <c r="N148" s="69"/>
     </row>
     <row r="149" spans="1:14">
       <c r="A149">
@@ -6643,10 +6644,10 @@
       <c r="J149" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="K149" s="69"/>
-      <c r="L149" s="72"/>
-      <c r="M149" s="75"/>
-      <c r="N149" s="69"/>
+      <c r="K149" s="70"/>
+      <c r="L149" s="73"/>
+      <c r="M149" s="76"/>
+      <c r="N149" s="70"/>
     </row>
     <row r="150" spans="1:14">
       <c r="A150">
@@ -6671,16 +6672,16 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K150" s="67">
+      <c r="K150" s="68">
         <f>(SUM(I150:J156))/60</f>
         <v>6.166666666666667</v>
       </c>
-      <c r="L150" s="70"/>
-      <c r="M150" s="73">
+      <c r="L150" s="71"/>
+      <c r="M150" s="74">
         <f>C156-C150</f>
         <v>-76.099999999999994</v>
       </c>
-      <c r="N150" s="76">
+      <c r="N150" s="77">
         <f>AVERAGE(C150:C156)</f>
         <v>76.5</v>
       </c>
@@ -6702,10 +6703,10 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K151" s="68"/>
-      <c r="L151" s="71"/>
-      <c r="M151" s="74"/>
-      <c r="N151" s="68"/>
+      <c r="K151" s="69"/>
+      <c r="L151" s="72"/>
+      <c r="M151" s="75"/>
+      <c r="N151" s="69"/>
     </row>
     <row r="152" spans="1:14">
       <c r="A152">
@@ -6724,10 +6725,10 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K152" s="68"/>
-      <c r="L152" s="71"/>
-      <c r="M152" s="74"/>
-      <c r="N152" s="68"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="72"/>
+      <c r="M152" s="75"/>
+      <c r="N152" s="69"/>
     </row>
     <row r="153" spans="1:14">
       <c r="A153">
@@ -6740,10 +6741,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K153" s="68"/>
-      <c r="L153" s="71"/>
-      <c r="M153" s="74"/>
-      <c r="N153" s="68"/>
+      <c r="K153" s="69"/>
+      <c r="L153" s="72"/>
+      <c r="M153" s="75"/>
+      <c r="N153" s="69"/>
     </row>
     <row r="154" spans="1:14">
       <c r="A154">
@@ -6756,10 +6757,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K154" s="68"/>
-      <c r="L154" s="71"/>
-      <c r="M154" s="74"/>
-      <c r="N154" s="68"/>
+      <c r="K154" s="69"/>
+      <c r="L154" s="72"/>
+      <c r="M154" s="75"/>
+      <c r="N154" s="69"/>
     </row>
     <row r="155" spans="1:14">
       <c r="A155">
@@ -6772,10 +6773,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K155" s="68"/>
-      <c r="L155" s="71"/>
-      <c r="M155" s="74"/>
-      <c r="N155" s="68"/>
+      <c r="K155" s="69"/>
+      <c r="L155" s="72"/>
+      <c r="M155" s="75"/>
+      <c r="N155" s="69"/>
     </row>
     <row r="156" spans="1:14">
       <c r="A156">
@@ -6788,10 +6789,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K156" s="69"/>
-      <c r="L156" s="72"/>
-      <c r="M156" s="75"/>
-      <c r="N156" s="69"/>
+      <c r="K156" s="70"/>
+      <c r="L156" s="73"/>
+      <c r="M156" s="76"/>
+      <c r="N156" s="70"/>
     </row>
     <row r="157" spans="1:14">
       <c r="A157">
@@ -6827,60 +6828,29 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="K129:K135"/>
-    <mergeCell ref="L129:L135"/>
-    <mergeCell ref="M129:M135"/>
-    <mergeCell ref="N129:N135"/>
-    <mergeCell ref="K136:K142"/>
-    <mergeCell ref="L136:L142"/>
-    <mergeCell ref="M136:M142"/>
-    <mergeCell ref="N136:N142"/>
-    <mergeCell ref="K122:K128"/>
-    <mergeCell ref="L122:L128"/>
-    <mergeCell ref="M122:M128"/>
-    <mergeCell ref="N122:N128"/>
-    <mergeCell ref="K115:K121"/>
-    <mergeCell ref="L115:L121"/>
-    <mergeCell ref="M115:M121"/>
-    <mergeCell ref="N115:N121"/>
-    <mergeCell ref="K108:K114"/>
-    <mergeCell ref="L108:L114"/>
-    <mergeCell ref="M108:M114"/>
-    <mergeCell ref="N108:N114"/>
-    <mergeCell ref="K101:K107"/>
-    <mergeCell ref="L101:L107"/>
-    <mergeCell ref="M101:M107"/>
-    <mergeCell ref="N101:N107"/>
-    <mergeCell ref="K87:K93"/>
-    <mergeCell ref="L87:L93"/>
-    <mergeCell ref="M87:M93"/>
-    <mergeCell ref="N87:N93"/>
-    <mergeCell ref="K94:K100"/>
-    <mergeCell ref="L94:L100"/>
-    <mergeCell ref="M94:M100"/>
-    <mergeCell ref="N94:N100"/>
-    <mergeCell ref="K80:K86"/>
-    <mergeCell ref="L80:L86"/>
-    <mergeCell ref="M80:M86"/>
-    <mergeCell ref="N80:N86"/>
-    <mergeCell ref="N73:N79"/>
-    <mergeCell ref="K73:K79"/>
-    <mergeCell ref="L73:L79"/>
-    <mergeCell ref="M73:M79"/>
-    <mergeCell ref="N66:N72"/>
-    <mergeCell ref="N59:N65"/>
-    <mergeCell ref="L66:L72"/>
-    <mergeCell ref="M66:M72"/>
-    <mergeCell ref="K59:K65"/>
-    <mergeCell ref="L59:L65"/>
-    <mergeCell ref="M59:M65"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="K3:K9"/>
-    <mergeCell ref="L3:L9"/>
-    <mergeCell ref="M3:M9"/>
-    <mergeCell ref="L10:L16"/>
-    <mergeCell ref="M10:M16"/>
-    <mergeCell ref="K66:K72"/>
+    <mergeCell ref="K150:K156"/>
+    <mergeCell ref="L150:L156"/>
+    <mergeCell ref="M150:M156"/>
+    <mergeCell ref="N150:N156"/>
+    <mergeCell ref="K143:K149"/>
+    <mergeCell ref="L143:L149"/>
+    <mergeCell ref="M143:M149"/>
+    <mergeCell ref="N143:N149"/>
+    <mergeCell ref="L17:L23"/>
+    <mergeCell ref="M17:M23"/>
+    <mergeCell ref="K52:K58"/>
+    <mergeCell ref="L52:L58"/>
+    <mergeCell ref="M52:M58"/>
+    <mergeCell ref="K24:K30"/>
+    <mergeCell ref="K31:K37"/>
+    <mergeCell ref="K38:K44"/>
+    <mergeCell ref="K45:K51"/>
+    <mergeCell ref="L24:L30"/>
+    <mergeCell ref="M24:M30"/>
+    <mergeCell ref="L31:L37"/>
+    <mergeCell ref="M31:M37"/>
+    <mergeCell ref="L38:L44"/>
+    <mergeCell ref="M38:M44"/>
     <mergeCell ref="N52:N58"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
@@ -6897,29 +6867,60 @@
     <mergeCell ref="N17:N23"/>
     <mergeCell ref="N45:N51"/>
     <mergeCell ref="K17:K23"/>
-    <mergeCell ref="L17:L23"/>
-    <mergeCell ref="M17:M23"/>
-    <mergeCell ref="K52:K58"/>
-    <mergeCell ref="L52:L58"/>
-    <mergeCell ref="M52:M58"/>
-    <mergeCell ref="K24:K30"/>
-    <mergeCell ref="K31:K37"/>
-    <mergeCell ref="K38:K44"/>
-    <mergeCell ref="K45:K51"/>
-    <mergeCell ref="L24:L30"/>
-    <mergeCell ref="M24:M30"/>
-    <mergeCell ref="L31:L37"/>
-    <mergeCell ref="M31:M37"/>
-    <mergeCell ref="L38:L44"/>
-    <mergeCell ref="M38:M44"/>
-    <mergeCell ref="K150:K156"/>
-    <mergeCell ref="L150:L156"/>
-    <mergeCell ref="M150:M156"/>
-    <mergeCell ref="N150:N156"/>
-    <mergeCell ref="K143:K149"/>
-    <mergeCell ref="L143:L149"/>
-    <mergeCell ref="M143:M149"/>
-    <mergeCell ref="N143:N149"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="K3:K9"/>
+    <mergeCell ref="L3:L9"/>
+    <mergeCell ref="M3:M9"/>
+    <mergeCell ref="L10:L16"/>
+    <mergeCell ref="M10:M16"/>
+    <mergeCell ref="N66:N72"/>
+    <mergeCell ref="N59:N65"/>
+    <mergeCell ref="L66:L72"/>
+    <mergeCell ref="M66:M72"/>
+    <mergeCell ref="K59:K65"/>
+    <mergeCell ref="L59:L65"/>
+    <mergeCell ref="M59:M65"/>
+    <mergeCell ref="K66:K72"/>
+    <mergeCell ref="K80:K86"/>
+    <mergeCell ref="L80:L86"/>
+    <mergeCell ref="M80:M86"/>
+    <mergeCell ref="N80:N86"/>
+    <mergeCell ref="N73:N79"/>
+    <mergeCell ref="K73:K79"/>
+    <mergeCell ref="L73:L79"/>
+    <mergeCell ref="M73:M79"/>
+    <mergeCell ref="K87:K93"/>
+    <mergeCell ref="L87:L93"/>
+    <mergeCell ref="M87:M93"/>
+    <mergeCell ref="N87:N93"/>
+    <mergeCell ref="K94:K100"/>
+    <mergeCell ref="L94:L100"/>
+    <mergeCell ref="M94:M100"/>
+    <mergeCell ref="N94:N100"/>
+    <mergeCell ref="K108:K114"/>
+    <mergeCell ref="L108:L114"/>
+    <mergeCell ref="M108:M114"/>
+    <mergeCell ref="N108:N114"/>
+    <mergeCell ref="K101:K107"/>
+    <mergeCell ref="L101:L107"/>
+    <mergeCell ref="M101:M107"/>
+    <mergeCell ref="N101:N107"/>
+    <mergeCell ref="K122:K128"/>
+    <mergeCell ref="L122:L128"/>
+    <mergeCell ref="M122:M128"/>
+    <mergeCell ref="N122:N128"/>
+    <mergeCell ref="K115:K121"/>
+    <mergeCell ref="L115:L121"/>
+    <mergeCell ref="M115:M121"/>
+    <mergeCell ref="N115:N121"/>
+    <mergeCell ref="K129:K135"/>
+    <mergeCell ref="L129:L135"/>
+    <mergeCell ref="M129:M135"/>
+    <mergeCell ref="N129:N135"/>
+    <mergeCell ref="K136:K142"/>
+    <mergeCell ref="L136:L142"/>
+    <mergeCell ref="M136:M142"/>
+    <mergeCell ref="N136:N142"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
